--- a/Data_Learning_Prediction/For_Book_Chapter_Feature Selection_TUR/FeatureSelection_TUR_GBR_841840_same-all.xlsx
+++ b/Data_Learning_Prediction/For_Book_Chapter_Feature Selection_TUR/FeatureSelection_TUR_GBR_841840_same-all.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\murat.ozemre\Desktop\Thesis_Project\Data_Learning_Prediction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\murat.ozemre\Desktop\Thesis_Project\Data_Learning_Prediction\For_Book_Chapter_Feature Selection_TUR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId5"/>
+    <pivotCache cacheId="4" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -547,6 +547,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -596,7 +599,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -606,6 +609,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6642,7 +6646,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:J23" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -6791,7 +6795,7 @@
     <dataField name="Average of value" fld="2" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <conditionalFormats count="2">
-    <conditionalFormat priority="2">
+    <conditionalFormat type="all" priority="1">
       <pivotAreas count="1">
         <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="1">
@@ -6802,7 +6806,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat type="all" priority="1">
+    <conditionalFormat priority="2">
       <pivotAreas count="1">
         <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="1">
@@ -8900,10 +8904,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:J23"/>
+  <dimension ref="A3:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8920,84 +8924,81 @@
     <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8" customWidth="1"/>
-    <col min="19" max="19" width="3" customWidth="1"/>
-    <col min="20" max="20" width="4" customWidth="1"/>
-    <col min="21" max="21" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3" customWidth="1"/>
-    <col min="24" max="24" width="4" customWidth="1"/>
-    <col min="25" max="25" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5" customWidth="1"/>
-    <col min="27" max="27" width="3" customWidth="1"/>
-    <col min="28" max="28" width="4" customWidth="1"/>
-    <col min="29" max="29" width="7.6640625" customWidth="1"/>
-    <col min="30" max="30" width="6" customWidth="1"/>
-    <col min="31" max="31" width="3" customWidth="1"/>
-    <col min="32" max="32" width="4" customWidth="1"/>
-    <col min="33" max="33" width="8.6640625" customWidth="1"/>
-    <col min="34" max="34" width="7" customWidth="1"/>
-    <col min="35" max="35" width="3" customWidth="1"/>
-    <col min="36" max="36" width="4" customWidth="1"/>
-    <col min="37" max="37" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="5" customWidth="1"/>
-    <col min="39" max="39" width="3" customWidth="1"/>
-    <col min="40" max="40" width="4" customWidth="1"/>
-    <col min="41" max="41" width="7.6640625" customWidth="1"/>
-    <col min="42" max="42" width="6" customWidth="1"/>
-    <col min="43" max="43" width="3" customWidth="1"/>
-    <col min="44" max="44" width="4" customWidth="1"/>
-    <col min="45" max="45" width="8.6640625" customWidth="1"/>
-    <col min="46" max="46" width="7" customWidth="1"/>
-    <col min="47" max="47" width="3" customWidth="1"/>
-    <col min="48" max="48" width="4" customWidth="1"/>
-    <col min="49" max="49" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="5" customWidth="1"/>
-    <col min="51" max="51" width="3" customWidth="1"/>
-    <col min="52" max="52" width="4" customWidth="1"/>
-    <col min="53" max="53" width="7.6640625" customWidth="1"/>
-    <col min="54" max="54" width="6" customWidth="1"/>
-    <col min="55" max="55" width="3" customWidth="1"/>
-    <col min="56" max="56" width="4" customWidth="1"/>
-    <col min="57" max="57" width="8.6640625" customWidth="1"/>
-    <col min="58" max="58" width="7" customWidth="1"/>
-    <col min="59" max="59" width="3" customWidth="1"/>
-    <col min="60" max="60" width="4" customWidth="1"/>
-    <col min="61" max="61" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="5" customWidth="1"/>
-    <col min="63" max="63" width="3" customWidth="1"/>
-    <col min="64" max="64" width="4" customWidth="1"/>
-    <col min="65" max="65" width="7.6640625" customWidth="1"/>
-    <col min="66" max="66" width="6" customWidth="1"/>
-    <col min="67" max="67" width="3" customWidth="1"/>
-    <col min="68" max="68" width="4" customWidth="1"/>
-    <col min="69" max="69" width="8.6640625" customWidth="1"/>
-    <col min="70" max="70" width="7" customWidth="1"/>
-    <col min="71" max="71" width="3" customWidth="1"/>
-    <col min="72" max="72" width="4" customWidth="1"/>
-    <col min="73" max="73" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="5" customWidth="1"/>
-    <col min="75" max="75" width="3" customWidth="1"/>
-    <col min="76" max="76" width="4" customWidth="1"/>
-    <col min="77" max="77" width="7.6640625" customWidth="1"/>
-    <col min="78" max="78" width="6" customWidth="1"/>
-    <col min="79" max="79" width="3" customWidth="1"/>
-    <col min="80" max="80" width="4" customWidth="1"/>
-    <col min="81" max="81" width="8.6640625" customWidth="1"/>
-    <col min="82" max="82" width="7" customWidth="1"/>
-    <col min="83" max="83" width="3" customWidth="1"/>
-    <col min="84" max="84" width="4" customWidth="1"/>
-    <col min="85" max="85" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="6.88671875" customWidth="1"/>
-    <col min="87" max="87" width="3" customWidth="1"/>
-    <col min="88" max="88" width="4" customWidth="1"/>
-    <col min="89" max="89" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="9" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4" customWidth="1"/>
+    <col min="22" max="22" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5" customWidth="1"/>
+    <col min="24" max="24" width="3" customWidth="1"/>
+    <col min="25" max="25" width="4" customWidth="1"/>
+    <col min="26" max="26" width="7.6640625" customWidth="1"/>
+    <col min="27" max="27" width="6" customWidth="1"/>
+    <col min="28" max="28" width="3" customWidth="1"/>
+    <col min="29" max="29" width="4" customWidth="1"/>
+    <col min="30" max="30" width="8.6640625" customWidth="1"/>
+    <col min="31" max="31" width="7" customWidth="1"/>
+    <col min="32" max="32" width="3" customWidth="1"/>
+    <col min="33" max="33" width="4" customWidth="1"/>
+    <col min="34" max="34" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="5" customWidth="1"/>
+    <col min="36" max="36" width="3" customWidth="1"/>
+    <col min="37" max="37" width="4" customWidth="1"/>
+    <col min="38" max="38" width="7.6640625" customWidth="1"/>
+    <col min="39" max="39" width="6" customWidth="1"/>
+    <col min="40" max="40" width="3" customWidth="1"/>
+    <col min="41" max="41" width="4" customWidth="1"/>
+    <col min="42" max="42" width="8.6640625" customWidth="1"/>
+    <col min="43" max="43" width="7" customWidth="1"/>
+    <col min="44" max="44" width="3" customWidth="1"/>
+    <col min="45" max="45" width="4" customWidth="1"/>
+    <col min="46" max="46" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="5" customWidth="1"/>
+    <col min="48" max="48" width="3" customWidth="1"/>
+    <col min="49" max="49" width="4" customWidth="1"/>
+    <col min="50" max="50" width="7.6640625" customWidth="1"/>
+    <col min="51" max="51" width="6" customWidth="1"/>
+    <col min="52" max="52" width="3" customWidth="1"/>
+    <col min="53" max="53" width="4" customWidth="1"/>
+    <col min="54" max="54" width="8.6640625" customWidth="1"/>
+    <col min="55" max="55" width="7" customWidth="1"/>
+    <col min="56" max="56" width="3" customWidth="1"/>
+    <col min="57" max="57" width="4" customWidth="1"/>
+    <col min="58" max="58" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="5" customWidth="1"/>
+    <col min="60" max="60" width="3" customWidth="1"/>
+    <col min="61" max="61" width="4" customWidth="1"/>
+    <col min="62" max="62" width="7.6640625" customWidth="1"/>
+    <col min="63" max="63" width="6" customWidth="1"/>
+    <col min="64" max="64" width="3" customWidth="1"/>
+    <col min="65" max="65" width="4" customWidth="1"/>
+    <col min="66" max="66" width="8.6640625" customWidth="1"/>
+    <col min="67" max="67" width="7" customWidth="1"/>
+    <col min="68" max="68" width="3" customWidth="1"/>
+    <col min="69" max="69" width="4" customWidth="1"/>
+    <col min="70" max="70" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="5" customWidth="1"/>
+    <col min="72" max="72" width="3" customWidth="1"/>
+    <col min="73" max="73" width="4" customWidth="1"/>
+    <col min="74" max="74" width="7.6640625" customWidth="1"/>
+    <col min="75" max="75" width="6" customWidth="1"/>
+    <col min="76" max="76" width="3" customWidth="1"/>
+    <col min="77" max="77" width="4" customWidth="1"/>
+    <col min="78" max="78" width="8.6640625" customWidth="1"/>
+    <col min="79" max="79" width="7" customWidth="1"/>
+    <col min="80" max="80" width="3" customWidth="1"/>
+    <col min="81" max="81" width="4" customWidth="1"/>
+    <col min="82" max="82" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="6.88671875" customWidth="1"/>
+    <col min="84" max="84" width="3" customWidth="1"/>
+    <col min="85" max="85" width="4" customWidth="1"/>
+    <col min="86" max="86" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="9" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>85</v>
       </c>
@@ -9005,7 +9006,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>82</v>
       </c>
@@ -9016,7 +9017,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>84</v>
       </c>
@@ -9048,7 +9049,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>70</v>
       </c>
@@ -9079,8 +9080,35 @@
       <c r="J6" s="2">
         <v>0.10939999999999998</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L6" s="5">
+        <v>0.14080000000000001</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0.14280000000000001</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0.1328</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0.14300000000000002</v>
+      </c>
+      <c r="P6" s="5">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>0.14560000000000001</v>
+      </c>
+      <c r="R6" s="5">
+        <v>0.15679999999999999</v>
+      </c>
+      <c r="S6" s="5">
+        <v>0.1048</v>
+      </c>
+      <c r="T6" s="5">
+        <v>0.10939999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
@@ -9111,8 +9139,35 @@
       <c r="J7" s="2">
         <v>0.12039999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L7" s="5">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0.157</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0.16140000000000002</v>
+      </c>
+      <c r="O7" s="5">
+        <v>0.17620000000000002</v>
+      </c>
+      <c r="P7" s="5">
+        <v>0.16340000000000002</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>0.16020000000000001</v>
+      </c>
+      <c r="R7" s="5">
+        <v>0.15160000000000001</v>
+      </c>
+      <c r="S7" s="5">
+        <v>0.12720000000000001</v>
+      </c>
+      <c r="T7" s="5">
+        <v>0.12039999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -9143,8 +9198,35 @@
       <c r="J8" s="2">
         <v>0.12239999999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L8" s="5">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="M8" s="5">
+        <v>0.13940000000000002</v>
+      </c>
+      <c r="N8" s="5">
+        <v>0.14419999999999999</v>
+      </c>
+      <c r="O8" s="5">
+        <v>0.14620000000000002</v>
+      </c>
+      <c r="P8" s="5">
+        <v>0.1434</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>0.13699999999999998</v>
+      </c>
+      <c r="R8" s="5">
+        <v>0.1244</v>
+      </c>
+      <c r="S8" s="5">
+        <v>0.13140000000000002</v>
+      </c>
+      <c r="T8" s="5">
+        <v>0.12239999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>71</v>
       </c>
@@ -9175,8 +9257,35 @@
       <c r="J9" s="2">
         <v>8.2000000000000003E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L9" s="5">
+        <v>0.16880000000000001</v>
+      </c>
+      <c r="M9" s="5">
+        <v>0.18060000000000001</v>
+      </c>
+      <c r="N9" s="5">
+        <v>0.17720000000000002</v>
+      </c>
+      <c r="O9" s="5">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="P9" s="5">
+        <v>0.1648</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>0.16120000000000001</v>
+      </c>
+      <c r="R9" s="5">
+        <v>0.10900000000000001</v>
+      </c>
+      <c r="S9" s="5">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="T9" s="5">
+        <v>8.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -9207,8 +9316,35 @@
       <c r="J10" s="2">
         <v>9.5599999999999991E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L10" s="5">
+        <v>0.22400000000000003</v>
+      </c>
+      <c r="M10" s="5">
+        <v>0.19339999999999999</v>
+      </c>
+      <c r="N10" s="5">
+        <v>0.19859999999999997</v>
+      </c>
+      <c r="O10" s="5">
+        <v>0.20339999999999997</v>
+      </c>
+      <c r="P10" s="5">
+        <v>0.18340000000000001</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>0.1762</v>
+      </c>
+      <c r="R10" s="5">
+        <v>0.11499999999999999</v>
+      </c>
+      <c r="S10" s="5">
+        <v>0.11119999999999999</v>
+      </c>
+      <c r="T10" s="5">
+        <v>9.5599999999999991E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
@@ -9239,8 +9375,35 @@
       <c r="J11" s="2">
         <v>0.15819999999999998</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L11" s="5">
+        <v>0.31579999999999997</v>
+      </c>
+      <c r="M11" s="5">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="N11" s="5">
+        <v>0.2944</v>
+      </c>
+      <c r="O11" s="5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="P11" s="5">
+        <v>0.24499999999999997</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>0.25159999999999999</v>
+      </c>
+      <c r="R11" s="5">
+        <v>0.18940000000000001</v>
+      </c>
+      <c r="S11" s="5">
+        <v>0.1638</v>
+      </c>
+      <c r="T11" s="5">
+        <v>0.15819999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>72</v>
       </c>
@@ -9271,8 +9434,35 @@
       <c r="J12" s="2">
         <v>0.1216</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L12" s="5">
+        <v>0.19139999999999999</v>
+      </c>
+      <c r="M12" s="5">
+        <v>0.19439999999999999</v>
+      </c>
+      <c r="N12" s="5">
+        <v>0.19099999999999998</v>
+      </c>
+      <c r="O12" s="5">
+        <v>0.21180000000000004</v>
+      </c>
+      <c r="P12" s="5">
+        <v>0.18439999999999998</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>0.19540000000000002</v>
+      </c>
+      <c r="R12" s="5">
+        <v>0.13520000000000001</v>
+      </c>
+      <c r="S12" s="5">
+        <v>0.12659999999999999</v>
+      </c>
+      <c r="T12" s="5">
+        <v>0.1216</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
@@ -9303,8 +9493,35 @@
       <c r="J13" s="2">
         <v>0.20779999999999998</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L13" s="5">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="M13" s="5">
+        <v>0.31159999999999999</v>
+      </c>
+      <c r="N13" s="5">
+        <v>0.31419999999999998</v>
+      </c>
+      <c r="O13" s="5">
+        <v>0.30500000000000005</v>
+      </c>
+      <c r="P13" s="5">
+        <v>0.26260000000000006</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>0.25259999999999999</v>
+      </c>
+      <c r="R13" s="5">
+        <v>0.2626</v>
+      </c>
+      <c r="S13" s="5">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="T13" s="5">
+        <v>0.20779999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
@@ -9335,8 +9552,35 @@
       <c r="J14" s="2">
         <v>0.18359999999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L14" s="5">
+        <v>0.32260000000000005</v>
+      </c>
+      <c r="M14" s="5">
+        <v>0.30060000000000003</v>
+      </c>
+      <c r="N14" s="5">
+        <v>0.28420000000000006</v>
+      </c>
+      <c r="O14" s="5">
+        <v>0.27299999999999996</v>
+      </c>
+      <c r="P14" s="5">
+        <v>0.21739999999999998</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>0.22320000000000001</v>
+      </c>
+      <c r="R14" s="5">
+        <v>0.21400000000000002</v>
+      </c>
+      <c r="S14" s="5">
+        <v>0.19119999999999998</v>
+      </c>
+      <c r="T14" s="5">
+        <v>0.18359999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>73</v>
       </c>
@@ -9367,8 +9611,35 @@
       <c r="J15" s="2">
         <v>0.29499999999999998</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L15" s="5">
+        <v>0.41879999999999995</v>
+      </c>
+      <c r="M15" s="5">
+        <v>0.39280000000000004</v>
+      </c>
+      <c r="N15" s="5">
+        <v>0.37020000000000003</v>
+      </c>
+      <c r="O15" s="5">
+        <v>0.42720000000000002</v>
+      </c>
+      <c r="P15" s="5">
+        <v>0.37039999999999995</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>0.31379999999999997</v>
+      </c>
+      <c r="R15" s="5">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="S15" s="5">
+        <v>0.3054</v>
+      </c>
+      <c r="T15" s="5">
+        <v>0.29499999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
@@ -9399,8 +9670,35 @@
       <c r="J16" s="2">
         <v>0.24279999999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L16" s="5">
+        <v>0.38619999999999999</v>
+      </c>
+      <c r="M16" s="5">
+        <v>0.31119999999999998</v>
+      </c>
+      <c r="N16" s="5">
+        <v>0.31140000000000001</v>
+      </c>
+      <c r="O16" s="5">
+        <v>0.33199999999999996</v>
+      </c>
+      <c r="P16" s="5">
+        <v>0.251</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>0.2412</v>
+      </c>
+      <c r="R16" s="5">
+        <v>0.31080000000000002</v>
+      </c>
+      <c r="S16" s="5">
+        <v>0.2492</v>
+      </c>
+      <c r="T16" s="5">
+        <v>0.24279999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
@@ -9431,8 +9729,35 @@
       <c r="J17" s="2">
         <v>0.2366</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L17" s="5">
+        <v>0.37140000000000001</v>
+      </c>
+      <c r="M17" s="5">
+        <v>0.36</v>
+      </c>
+      <c r="N17" s="5">
+        <v>0.37240000000000001</v>
+      </c>
+      <c r="O17" s="5">
+        <v>0.31259999999999999</v>
+      </c>
+      <c r="P17" s="5">
+        <v>0.29820000000000002</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>0.27439999999999998</v>
+      </c>
+      <c r="R17" s="5">
+        <v>0.27660000000000001</v>
+      </c>
+      <c r="S17" s="5">
+        <v>0.25339999999999996</v>
+      </c>
+      <c r="T17" s="5">
+        <v>0.2366</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>74</v>
       </c>
@@ -9463,8 +9788,35 @@
       <c r="J18" s="2">
         <v>0.14520000000000002</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L18" s="5">
+        <v>0.17600000000000002</v>
+      </c>
+      <c r="M18" s="5">
+        <v>0.1822</v>
+      </c>
+      <c r="N18" s="5">
+        <v>0.2036</v>
+      </c>
+      <c r="O18" s="5">
+        <v>0.17639999999999997</v>
+      </c>
+      <c r="P18" s="5">
+        <v>0.14300000000000002</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>0.14540000000000003</v>
+      </c>
+      <c r="R18" s="5">
+        <v>0.15640000000000001</v>
+      </c>
+      <c r="S18" s="5">
+        <v>0.13919999999999999</v>
+      </c>
+      <c r="T18" s="5">
+        <v>0.14520000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
@@ -9495,8 +9847,35 @@
       <c r="J19" s="2">
         <v>0.17679999999999998</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L19" s="5">
+        <v>0.24539999999999998</v>
+      </c>
+      <c r="M19" s="5">
+        <v>0.26979999999999998</v>
+      </c>
+      <c r="N19" s="5">
+        <v>0.2666</v>
+      </c>
+      <c r="O19" s="5">
+        <v>0.20659999999999998</v>
+      </c>
+      <c r="P19" s="5">
+        <v>0.19259999999999997</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>0.20600000000000002</v>
+      </c>
+      <c r="R19" s="5">
+        <v>0.18640000000000004</v>
+      </c>
+      <c r="S19" s="5">
+        <v>0.18140000000000001</v>
+      </c>
+      <c r="T19" s="5">
+        <v>0.17679999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>18</v>
       </c>
@@ -9527,8 +9906,35 @@
       <c r="J20" s="2">
         <v>0.15540000000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L20" s="5">
+        <v>0.26359999999999995</v>
+      </c>
+      <c r="M20" s="5">
+        <v>0.2576</v>
+      </c>
+      <c r="N20" s="5">
+        <v>0.24700000000000003</v>
+      </c>
+      <c r="O20" s="5">
+        <v>0.22399999999999998</v>
+      </c>
+      <c r="P20" s="5">
+        <v>0.20019999999999999</v>
+      </c>
+      <c r="Q20" s="5">
+        <v>0.18759999999999999</v>
+      </c>
+      <c r="R20" s="5">
+        <v>0.18280000000000002</v>
+      </c>
+      <c r="S20" s="5">
+        <v>0.1658</v>
+      </c>
+      <c r="T20" s="5">
+        <v>0.15540000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>75</v>
       </c>
@@ -9559,8 +9965,35 @@
       <c r="J21" s="2">
         <v>0.17080000000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L21" s="5">
+        <v>0.24660000000000001</v>
+      </c>
+      <c r="M21" s="5">
+        <v>0.24859999999999999</v>
+      </c>
+      <c r="N21" s="5">
+        <v>0.27739999999999998</v>
+      </c>
+      <c r="O21" s="5">
+        <v>0.20039999999999999</v>
+      </c>
+      <c r="P21" s="5">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="Q21" s="5">
+        <v>0.23879999999999998</v>
+      </c>
+      <c r="R21" s="5">
+        <v>0.1658</v>
+      </c>
+      <c r="S21" s="5">
+        <v>0.18340000000000001</v>
+      </c>
+      <c r="T21" s="5">
+        <v>0.17080000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>20</v>
       </c>
@@ -9591,8 +10024,35 @@
       <c r="J22" s="2">
         <v>0.14520000000000002</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L22" s="5">
+        <v>0.24420000000000003</v>
+      </c>
+      <c r="M22" s="5">
+        <v>0.23319999999999999</v>
+      </c>
+      <c r="N22" s="5">
+        <v>0.24340000000000001</v>
+      </c>
+      <c r="O22" s="5">
+        <v>0.19319999999999998</v>
+      </c>
+      <c r="P22" s="5">
+        <v>0.1956</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>0.19180000000000003</v>
+      </c>
+      <c r="R22" s="5">
+        <v>0.1484</v>
+      </c>
+      <c r="S22" s="5">
+        <v>0.1386</v>
+      </c>
+      <c r="T22" s="5">
+        <v>0.14520000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>21</v>
       </c>
@@ -9621,6 +10081,33 @@
         <v>0.15579999999999999</v>
       </c>
       <c r="J23" s="2">
+        <v>0.153</v>
+      </c>
+      <c r="L23" s="5">
+        <v>0.29380000000000001</v>
+      </c>
+      <c r="M23" s="5">
+        <v>0.28439999999999993</v>
+      </c>
+      <c r="N23" s="5">
+        <v>0.28559999999999997</v>
+      </c>
+      <c r="O23" s="5">
+        <v>0.25940000000000002</v>
+      </c>
+      <c r="P23" s="5">
+        <v>0.21680000000000002</v>
+      </c>
+      <c r="Q23" s="5">
+        <v>0.23600000000000004</v>
+      </c>
+      <c r="R23" s="5">
+        <v>0.14979999999999999</v>
+      </c>
+      <c r="S23" s="5">
+        <v>0.15579999999999999</v>
+      </c>
+      <c r="T23" s="5">
         <v>0.153</v>
       </c>
     </row>
